--- a/Results/Res_RAG_no_rerank.xlsx
+++ b/Results/Res_RAG_no_rerank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\effik\Desktop\THESIS\test_postgre\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CACE883-9DD7-4D4A-9B05-83A6E3F658F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E314418-6A60-46A7-A63A-6D569B8771E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,13 +33,27 @@
     <sheet name="No Rerank Set 9 - Extra" sheetId="19" r:id="rId18"/>
     <sheet name="No Rerank Set 10" sheetId="20" r:id="rId19"/>
     <sheet name="No Rerank Set 10 - Extra" sheetId="21" r:id="rId20"/>
+    <sheet name="AVERAGE" sheetId="22" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="9">
   <si>
     <t>Top-K</t>
   </si>
@@ -1052,7 +1066,9 @@
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1180,7 +1196,9 @@
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1223,6 +1241,95 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B4320F-A7AD-41B0-914C-FE2E2BC482BB}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <f>SUM('No Rerank Set 1'!D2 + 'No Rerank Set 2'!D2 + 'No Rerank Set 3'!D2 + 'No Rerank Set 4'!D2 + 'No Rerank Set 5'!D2 + 'No Rerank Set 6'!D2 + 'No Rerank Set 7'!D2 + 'No Rerank Set 8'!D2 + 'No Rerank Set 9'!D2 + 'No Rerank Set 10'!D2) / 10</f>
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <f>SUM('No Rerank Set 1'!D3 + 'No Rerank Set 2'!D3 + 'No Rerank Set 3'!D3 + 'No Rerank Set 4'!D3 + 'No Rerank Set 5'!D3 + 'No Rerank Set 6'!D3 + 'No Rerank Set 7'!D3 + 'No Rerank Set 8'!D3 + 'No Rerank Set 9'!D3 + 'No Rerank Set 10'!D3) / 10</f>
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <f>SUM('No Rerank Set 1'!D4 + 'No Rerank Set 2'!D4 + 'No Rerank Set 3'!D4 + 'No Rerank Set 4'!D4 + 'No Rerank Set 5'!D4 + 'No Rerank Set 6'!D4 + 'No Rerank Set 7'!D4 + 'No Rerank Set 8'!D4 + 'No Rerank Set 9'!D4 + 'No Rerank Set 10'!D4) / 10</f>
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <f>SUM('No Rerank Set 1 - Extra'!B2 + 'No Rerank Set 2 - Extra'!B2 + 'No Rerank Set 3 - Extra'!B2 + 'No Rerank Set 4 - Extra'!B2 + 'No Rerank Set 5 - Extra'!B2 + 'No Rerank Set 6 - Extra'!B2 + 'No Rerank Set 7 - Extra'!B2 + 'No Rerank Set 8 - Extra'!B2 + 'No Rerank Set 9 - Extra'!B2 + 'No Rerank Set 10 - Extra'!B2) / 10</f>
+        <v>0.69013000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <f>SUM('No Rerank Set 1 - Extra'!B3 + 'No Rerank Set 2 - Extra'!B3 + 'No Rerank Set 3 - Extra'!B3 + 'No Rerank Set 4 - Extra'!B3 + 'No Rerank Set 5 - Extra'!B3 + 'No Rerank Set 6 - Extra'!B3 + 'No Rerank Set 7 - Extra'!B3 + 'No Rerank Set 8 - Extra'!B3 + 'No Rerank Set 9 - Extra'!B3 + 'No Rerank Set 10 - Extra'!B3) / 10</f>
+        <v>0.98958000000000013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <f>SUM('No Rerank Set 1 - Extra'!B4 + 'No Rerank Set 2 - Extra'!B4 + 'No Rerank Set 3 - Extra'!B4 + 'No Rerank Set 4 - Extra'!B4 + 'No Rerank Set 5 - Extra'!B4 + 'No Rerank Set 6 - Extra'!B4 + 'No Rerank Set 7 - Extra'!B4 + 'No Rerank Set 8 - Extra'!B4 + 'No Rerank Set 9 - Extra'!B4 + 'No Rerank Set 10 - Extra'!B4) / 10</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
